--- a/hardware/arm/Nuvoton/variants/M480/DOC/M482ZI(33P).xlsx
+++ b/hardware/arm/Nuvoton/variants/M480/DOC/M482ZI(33P).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
   <si>
     <t>P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
     <t>PB_14</t>
   </si>
   <si>
-    <t>M482ZI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADC5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,14 +153,6 @@
     <t>ADC0</t>
   </si>
   <si>
-    <t>RX2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCL0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,14 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TX1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCL1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,14 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RX0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADC12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +261,186 @@
   </si>
   <si>
     <t>SS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSI_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MISO_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCK_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBD+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBD-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBOTG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBVBUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA0_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA0_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA0_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC1OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC0OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M482ZI/ANALOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M482ZI/COMMUNICATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBVBUS_EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +484,42 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -402,7 +590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -422,19 +610,6 @@
       </top>
       <bottom style="thin">
         <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,11 +665,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -504,50 +708,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -855,535 +1082,858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q35"/>
+  <dimension ref="C2:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="2.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F3" s="4"/>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="G2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.15">
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F4" s="18" t="s">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="G4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="15" t="s">
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>32</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>31</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C7" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C8" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5">
+        <v>29</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D9" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>28</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D10" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="J10" s="5">
+        <v>27</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="J11" s="5">
+        <v>26</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="J12" s="5">
+        <v>25</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5">
+        <v>24</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5">
+        <v>23</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="J15" s="5">
+        <v>22</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="J16" s="5">
+        <v>21</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="E17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5">
+        <v>20</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="E18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="J18" s="5">
+        <v>19</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="E19" s="1"/>
+      <c r="G19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5">
+        <v>18</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="E20" s="1"/>
+      <c r="G20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="J20" s="5">
+        <v>17</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="E22" s="1"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="G23" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="G25" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>32</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2</v>
+      </c>
+      <c r="J27" s="5">
+        <v>31</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5">
+        <v>3</v>
+      </c>
+      <c r="J28" s="5">
+        <v>30</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="5">
+        <v>4</v>
+      </c>
+      <c r="J29" s="5">
+        <v>29</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="5">
+        <v>5</v>
+      </c>
+      <c r="J30" s="5">
+        <v>28</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="M30" s="29"/>
+      <c r="N30" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="5">
+        <v>6</v>
+      </c>
+      <c r="J31" s="5">
+        <v>27</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="G32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="5">
+        <v>7</v>
+      </c>
+      <c r="J32" s="5">
+        <v>26</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="G33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="5">
+        <v>8</v>
+      </c>
+      <c r="J33" s="5">
+        <v>25</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="5">
+        <v>9</v>
+      </c>
+      <c r="J34" s="5">
+        <v>24</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="5">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5">
+        <v>23</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D36" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="5">
+        <v>11</v>
+      </c>
+      <c r="J36" s="5">
+        <v>22</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D37" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="5">
+        <v>12</v>
+      </c>
+      <c r="J37" s="5">
+        <v>21</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="M37" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>32</v>
-      </c>
-      <c r="J5" s="17" t="s">
+      <c r="N37" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="5">
+        <v>13</v>
+      </c>
+      <c r="J38" s="5">
+        <v>20</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="5">
+        <v>14</v>
+      </c>
+      <c r="J39" s="5">
+        <v>19</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="E40" s="1"/>
+      <c r="G40" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6">
-        <v>31</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="H40" s="5">
+        <v>15</v>
+      </c>
+      <c r="J40" s="5">
+        <v>18</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="E41" s="1"/>
+      <c r="G41" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="5">
+        <v>16</v>
+      </c>
+      <c r="J41" s="5">
+        <v>17</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6">
-        <v>30</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="6">
-        <v>4</v>
-      </c>
-      <c r="I8" s="6">
-        <v>29</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="C9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="6">
-        <v>5</v>
-      </c>
-      <c r="I9" s="6">
-        <v>28</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="C10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="6">
-        <v>6</v>
-      </c>
-      <c r="I10" s="6">
-        <v>27</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="C11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="6">
-        <v>7</v>
-      </c>
-      <c r="I11" s="6">
-        <v>26</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="C12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="6">
-        <v>8</v>
-      </c>
-      <c r="I12" s="6">
-        <v>25</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="C13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="6">
-        <v>9</v>
-      </c>
-      <c r="I13" s="6">
-        <v>24</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="C14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="6">
-        <v>10</v>
-      </c>
-      <c r="I14" s="6">
-        <v>23</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="6">
-        <v>11</v>
-      </c>
-      <c r="I15" s="6">
-        <v>22</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="6">
-        <v>12</v>
-      </c>
-      <c r="I16" s="6">
-        <v>21</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="6">
-        <v>13</v>
-      </c>
-      <c r="I17" s="6">
-        <v>20</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6">
-        <v>14</v>
-      </c>
-      <c r="I18" s="6">
-        <v>19</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D19" s="1"/>
-      <c r="F19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="6">
-        <v>15</v>
-      </c>
-      <c r="I19" s="6">
-        <v>18</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D20" s="1"/>
-      <c r="F20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="6">
-        <v>16</v>
-      </c>
-      <c r="I20" s="6">
-        <v>17</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D33" s="1"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="M41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F2:J2"/>
+  <mergeCells count="13">
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardware/arm/Nuvoton/variants/M480/DOC/M482ZI(33P).xlsx
+++ b/hardware/arm/Nuvoton/variants/M480/DOC/M482ZI(33P).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
   <si>
     <t>P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,290 +157,326 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ADC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC13</t>
+  </si>
+  <si>
+    <t>ADC14</t>
+  </si>
+  <si>
+    <t>ADC15</t>
+  </si>
+  <si>
+    <t>PWM00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM02</t>
+  </si>
+  <si>
+    <t>PWM03</t>
+  </si>
+  <si>
+    <t>PWM04</t>
+  </si>
+  <si>
+    <t>PWM05</t>
+  </si>
+  <si>
+    <t>PWM10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM12</t>
+  </si>
+  <si>
+    <t>PWM13</t>
+  </si>
+  <si>
+    <t>PWM14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICE_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICE_DAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCK_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MISO_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSI_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MISO_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSI_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCK_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSI_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MISO_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCK_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SDA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC13</t>
-  </si>
-  <si>
-    <t>ADC14</t>
-  </si>
-  <si>
-    <t>ADC15</t>
-  </si>
-  <si>
-    <t>PWM00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM02</t>
-  </si>
-  <si>
-    <t>PWM03</t>
-  </si>
-  <si>
-    <t>PWM04</t>
-  </si>
-  <si>
-    <t>PWM05</t>
-  </si>
-  <si>
-    <t>PWM10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM12</t>
-  </si>
-  <si>
-    <t>PWM13</t>
-  </si>
-  <si>
-    <t>PWM14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICE_CLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICE_DAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCK_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MISO_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOSI_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MISO_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOSI_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCK_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOSI_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MISO_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCK_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TX22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>USBD+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBD-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBOTG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBVBUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA0_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA0_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA0_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC1OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC0OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M482ZI/ANALOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M482ZI/COMMUNICATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBVBUS_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RX22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RX210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX412</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX412</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USBD+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USBD-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USBOTG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USBVBUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPA0_N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPA0_O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPA0_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAC1OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAC0OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M482ZI/ANALOG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M482ZI/COMMUNICATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USBVBUS_EN</t>
+    <t>RX23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,6 +793,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,12 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:R41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,7 +1129,7 @@
     <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
@@ -1103,19 +1139,19 @@
     <col min="11" max="11" width="6.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="6.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="G2" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="G2" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.15">
       <c r="G3" s="4"/>
@@ -1125,22 +1161,22 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C5" s="15" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>32</v>
@@ -1157,15 +1193,15 @@
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C6" s="15" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>33</v>
@@ -1183,21 +1219,21 @@
         <v>29</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C7" s="15" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>34</v>
@@ -1215,24 +1251,24 @@
         <v>30</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C8" s="16" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>35</v>
@@ -1250,18 +1286,18 @@
         <v>31</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>36</v>
@@ -1279,18 +1315,18 @@
         <v>28</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>37</v>
@@ -1354,7 +1390,7 @@
         <v>23</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.15">
@@ -1371,12 +1407,12 @@
         <v>24</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>14</v>
@@ -1394,7 +1430,7 @@
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>15</v>
@@ -1412,7 +1448,7 @@
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.15">
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>16</v>
@@ -1430,7 +1466,7 @@
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.15">
       <c r="E18" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>17</v>
@@ -1481,19 +1517,19 @@
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.15">
       <c r="E22" s="1"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="G23" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
+      <c r="G23" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.15">
       <c r="G24" s="18"/>
@@ -1501,31 +1537,31 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="26"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D26" s="8" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>3</v>
@@ -1539,18 +1575,18 @@
       <c r="K26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D27" s="8" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>4</v>
@@ -1564,17 +1600,20 @@
       <c r="K27" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="L27" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D28" s="8" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>5</v>
@@ -1588,17 +1627,20 @@
       <c r="K28" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="L28" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D29" s="8" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>6</v>
@@ -1614,16 +1656,16 @@
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="8" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D30" s="8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="21" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>7</v>
@@ -1637,21 +1679,21 @@
       <c r="K30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="M30" s="29"/>
+      <c r="L30" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" s="25"/>
       <c r="N30" s="8" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D31" s="8" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="21" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>8</v>
@@ -1668,7 +1710,7 @@
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D32" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E32" s="1"/>
       <c r="G32" s="5" t="s">
@@ -1686,7 +1728,7 @@
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D33" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1"/>
       <c r="G33" s="5" t="s">
@@ -1705,7 +1747,7 @@
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D34" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="9" t="s">
@@ -1724,22 +1766,22 @@
         <v>23</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D35" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>13</v>
@@ -1754,24 +1796,24 @@
         <v>24</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D36" s="8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>14</v>
@@ -1786,24 +1828,24 @@
         <v>22</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D37" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>15</v>
@@ -1818,21 +1860,24 @@
         <v>21</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D38" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>16</v>
@@ -1847,19 +1892,22 @@
         <v>27</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D39" s="8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>17</v>
@@ -1874,11 +1922,11 @@
         <v>26</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="4:18" x14ac:dyDescent="0.15">
@@ -1896,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M40" s="1"/>
     </row>
@@ -1915,7 +1963,7 @@
         <v>20</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M41" s="1"/>
     </row>

--- a/hardware/arm/Nuvoton/variants/M480/DOC/M482ZI(33P).xlsx
+++ b/hardware/arm/Nuvoton/variants/M480/DOC/M482ZI(33P).xlsx
@@ -153,10 +153,6 @@
     <t>ADC0</t>
   </si>
   <si>
-    <t>SCL0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADC12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,7 +272,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SDA0</t>
+    <t>USBD+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBD-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBOTG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBVBUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA0_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA0_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA0_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC1OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC0OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M482ZI/ANALOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M482ZI/COMMUNICATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBVBUS_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -284,199 +472,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USBD+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USBD-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USBOTG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USBVBUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPA0_N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPA0_O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPA0_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAC1OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAC0OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M482ZI/ANALOG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M482ZI/COMMUNICATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USBVBUS_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDA00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCL00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCL01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDA01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCL10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDA10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCL11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDA11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCL20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDA21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCL21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDA21</t>
+    <t>SCL02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -811,6 +811,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1121,7 +1122,7 @@
   <dimension ref="C2:R41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,7 +1147,7 @@
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.15">
       <c r="G2" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
@@ -1173,10 +1174,10 @@
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C5" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>32</v>
@@ -1198,10 +1199,10 @@
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C6" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>33</v>
@@ -1219,21 +1220,21 @@
         <v>29</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C7" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>34</v>
@@ -1251,24 +1252,24 @@
         <v>30</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C8" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>35</v>
@@ -1286,18 +1287,18 @@
         <v>31</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>36</v>
@@ -1315,18 +1316,18 @@
         <v>28</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>37</v>
@@ -1390,7 +1391,7 @@
         <v>23</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.15">
@@ -1407,12 +1408,12 @@
         <v>24</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>14</v>
@@ -1430,7 +1431,7 @@
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>15</v>
@@ -1448,7 +1449,7 @@
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.15">
       <c r="E17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>16</v>
@@ -1466,7 +1467,7 @@
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.15">
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>17</v>
@@ -1522,7 +1523,7 @@
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.15">
       <c r="G23" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
@@ -1555,13 +1556,13 @@
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D26" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>3</v>
@@ -1580,13 +1581,13 @@
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D27" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>4</v>
@@ -1601,19 +1602,19 @@
         <v>29</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D28" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>5</v>
@@ -1628,19 +1629,19 @@
         <v>30</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D29" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>6</v>
@@ -1656,16 +1657,16 @@
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D30" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>7</v>
@@ -1680,20 +1681,20 @@
         <v>28</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M30" s="25"/>
       <c r="N30" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D31" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>8</v>
@@ -1710,7 +1711,7 @@
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D32" s="8" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E32" s="1"/>
       <c r="G32" s="5" t="s">
@@ -1728,7 +1729,7 @@
     </row>
     <row r="33" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D33" s="8" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1"/>
       <c r="G33" s="5" t="s">
@@ -1747,11 +1748,11 @@
     </row>
     <row r="34" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D34" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="9" t="s">
-        <v>38</v>
+      <c r="F34" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>12</v>
@@ -1766,22 +1767,22 @@
         <v>23</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D35" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="9" t="s">
-        <v>71</v>
+      <c r="F35" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>13</v>
@@ -1796,24 +1797,24 @@
         <v>24</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D36" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>14</v>
@@ -1828,24 +1829,24 @@
         <v>22</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D37" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>15</v>
@@ -1860,24 +1861,24 @@
         <v>21</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D38" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>16</v>
@@ -1892,22 +1893,22 @@
         <v>27</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="8" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D39" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>17</v>
@@ -1922,11 +1923,11 @@
         <v>26</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="8" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="4:18" x14ac:dyDescent="0.15">
@@ -1944,7 +1945,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M40" s="1"/>
     </row>
@@ -1963,7 +1964,7 @@
         <v>20</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M41" s="1"/>
     </row>
